--- a/Transport_Corridors_MekongDelta.xlsx
+++ b/Transport_Corridors_MekongDelta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logandinh/Documents/Coding Skills/mmt_path_optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80133893-C828-E842-9DA2-F1CCA1B423F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F48438-35DB-EA48-ADA5-B373EF51E6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7738,7 +7738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
